--- a/biology/Botanique/Miscanthus_floridulus/Miscanthus_floridulus.xlsx
+++ b/biology/Botanique/Miscanthus_floridulus/Miscanthus_floridulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miscanthus floridulus, aussi appelé roseau de Chine[3], est une espèce de plantes monocotylédones de la famille des Poaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miscanthus floridulus, aussi appelé roseau de Chine, est une espèce de plantes monocotylédones de la famille des Poaceae.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-L'espèce se présente comme une grande herbe vivace en touffes raides[3].
-Feuilles
-Fleurs
-Les inflorescences sont de grandes panicules plumeuses pyramidales, dressées et soyeuses[3].
-Fruits</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une grande herbe vivace en touffes raides.
+</t>
         </is>
       </c>
     </row>
@@ -543,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire de Chine et du Japon, cette espèce a été introduite dans d'autres zones géographiques, notamment la Polynésie et la Nouvelle-Calédonie[3], où elle pourrait s'avérer envahissante (statut incertain)[4].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont de grandes panicules plumeuses pyramidales, dressées et soyeuses.
 </t>
         </is>
       </c>
@@ -574,13 +594,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Chine et du Japon, cette espèce a été introduite dans d'autres zones géographiques, notamment la Polynésie et la Nouvelle-Calédonie, où elle pourrait s'avérer envahissante (statut incertain).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Miscanthus_floridulus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miscanthus_floridulus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1824 sous le basionyme de Saccharum floridulum par le botaniste français Jacques-Julien Houtou de La Billardière (1755-1834), puis recombinée dans le genre Miscanthus en 1901 par les botanistes allemands Karl Moritz Schumann (1851-1904) et Karl Lauterbach (1864-1937), à la suite des travaux de leur homologue Otto Warburg (1859-1938)[5]. 
-L'épithète spécifique floridulus signifie « très florifère »[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1824 sous le basionyme de Saccharum floridulum par le botaniste français Jacques-Julien Houtou de La Billardière (1755-1834), puis recombinée dans le genre Miscanthus en 1901 par les botanistes allemands Karl Moritz Schumann (1851-1904) et Karl Lauterbach (1864-1937), à la suite des travaux de leur homologue Otto Warburg (1859-1938). 
+L'épithète spécifique floridulus signifie « très florifère ». 
 </t>
         </is>
       </c>
